--- a/tabla_1.xlsx
+++ b/tabla_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Downloads\maru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED277F-BD9F-451B-9FCD-1A23BE7C5933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32722C8E-FC39-453D-97AE-A894EAD9226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A37" activeCellId="4" sqref="A13 A19 A25 A31 A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,1165 +830,1087 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="22">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>95.4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>94.3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>94.1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>94</v>
+      </c>
+      <c r="G8" s="20">
+        <v>93.4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>93.6</v>
+      </c>
+      <c r="I8" s="15">
+        <v>93.4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>93.2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>94.7</v>
+        <v>92.9</v>
       </c>
       <c r="C9" s="7">
-        <v>95.4</v>
+        <v>92.7</v>
       </c>
       <c r="D9" s="7">
-        <v>94.3</v>
+        <v>92.5</v>
       </c>
       <c r="E9" s="7">
-        <v>94.1</v>
+        <v>92.3</v>
       </c>
       <c r="F9" s="20">
-        <v>94</v>
+        <v>92.1</v>
       </c>
       <c r="G9" s="20">
-        <v>93.4</v>
+        <v>92</v>
       </c>
       <c r="H9" s="15">
-        <v>93.6</v>
+        <v>91.8</v>
       </c>
       <c r="I9" s="15">
-        <v>93.4</v>
+        <v>91.6</v>
       </c>
       <c r="J9" s="15">
-        <v>93.2</v>
+        <v>91.4</v>
       </c>
       <c r="K9" s="11">
-        <v>93.1</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>92.9</v>
+        <v>91</v>
       </c>
       <c r="C10" s="7">
-        <v>92.7</v>
+        <v>90.8</v>
       </c>
       <c r="D10" s="7">
-        <v>92.5</v>
+        <v>90.7</v>
       </c>
       <c r="E10" s="7">
-        <v>92.3</v>
+        <v>90.5</v>
       </c>
       <c r="F10" s="20">
-        <v>92.1</v>
+        <v>90.3</v>
       </c>
       <c r="G10" s="20">
-        <v>92</v>
+        <v>90.1</v>
       </c>
       <c r="H10" s="15">
-        <v>91.8</v>
+        <v>89.9</v>
       </c>
       <c r="I10" s="15">
-        <v>91.6</v>
+        <v>89.7</v>
       </c>
       <c r="J10" s="15">
-        <v>91.4</v>
+        <v>89.5</v>
       </c>
       <c r="K10" s="11">
-        <v>91.2</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>91</v>
+        <v>89.1</v>
       </c>
       <c r="C11" s="7">
-        <v>90.8</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7">
-        <v>90.7</v>
+        <v>88.7</v>
       </c>
       <c r="E11" s="7">
-        <v>90.5</v>
+        <v>88.6</v>
       </c>
       <c r="F11" s="20">
-        <v>90.3</v>
+        <v>88.4</v>
       </c>
       <c r="G11" s="20">
-        <v>90.1</v>
+        <v>88.2</v>
       </c>
       <c r="H11" s="15">
-        <v>89.9</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15">
-        <v>89.7</v>
+        <v>87.8</v>
       </c>
       <c r="J11" s="15">
-        <v>89.5</v>
+        <v>87.6</v>
       </c>
       <c r="K11" s="11">
-        <v>83.3</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>89.1</v>
+        <v>87.2</v>
       </c>
       <c r="C12" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>88.7</v>
+        <v>86.8</v>
       </c>
       <c r="E12" s="7">
-        <v>88.6</v>
+        <v>86.6</v>
       </c>
       <c r="F12" s="20">
-        <v>88.4</v>
+        <v>86.5</v>
       </c>
       <c r="G12" s="20">
-        <v>88.2</v>
+        <v>86.2</v>
       </c>
       <c r="H12" s="15">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" s="15">
-        <v>87.8</v>
+        <v>85.8</v>
       </c>
       <c r="J12" s="15">
-        <v>87.6</v>
+        <v>85.6</v>
       </c>
       <c r="K12" s="11">
-        <v>87.4</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>87.2</v>
+        <v>85.2</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>86.8</v>
+        <v>84.8</v>
       </c>
       <c r="E13" s="7">
-        <v>86.6</v>
+        <v>84.6</v>
       </c>
       <c r="F13" s="20">
-        <v>86.5</v>
+        <v>84.3</v>
       </c>
       <c r="G13" s="20">
-        <v>86.2</v>
+        <v>84.1</v>
       </c>
       <c r="H13" s="15">
-        <v>86</v>
+        <v>83.9</v>
       </c>
       <c r="I13" s="15">
-        <v>85.8</v>
+        <v>83.7</v>
       </c>
       <c r="J13" s="15">
-        <v>85.6</v>
+        <v>83.5</v>
       </c>
       <c r="K13" s="11">
-        <v>85.4</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="11"/>
+      <c r="A14" s="22">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>82.9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>82.5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>82.3</v>
+      </c>
+      <c r="G14" s="20">
+        <v>82</v>
+      </c>
+      <c r="H14" s="15">
+        <v>81.8</v>
+      </c>
+      <c r="I14" s="15">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J14" s="15">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K14" s="11">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>85.2</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7">
-        <v>85</v>
+        <v>80.7</v>
       </c>
       <c r="D15" s="7">
-        <v>84.8</v>
+        <v>80.5</v>
       </c>
       <c r="E15" s="7">
-        <v>84.6</v>
+        <v>80.3</v>
       </c>
       <c r="F15" s="20">
-        <v>84.3</v>
+        <v>80.2</v>
       </c>
       <c r="G15" s="20">
-        <v>84.1</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="H15" s="15">
-        <v>83.9</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I15" s="15">
-        <v>83.7</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="J15" s="15">
-        <v>83.5</v>
+        <v>79.2</v>
       </c>
       <c r="K15" s="11">
-        <v>83.3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>83.1</v>
+        <v>78.8</v>
       </c>
       <c r="C16" s="7">
-        <v>82.9</v>
+        <v>78.5</v>
       </c>
       <c r="D16" s="7">
-        <v>82.8</v>
+        <v>78.3</v>
       </c>
       <c r="E16" s="7">
-        <v>82.5</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="F16" s="20">
-        <v>82.3</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G16" s="20">
-        <v>82</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H16" s="15">
-        <v>81.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="I16" s="15">
-        <v>81.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="J16" s="15">
-        <v>81.400000000000006</v>
+        <v>77</v>
       </c>
       <c r="K16" s="11">
-        <v>81.2</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>81</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C17" s="7">
-        <v>80.7</v>
+        <v>76.3</v>
       </c>
       <c r="D17" s="7">
-        <v>80.5</v>
+        <v>76</v>
       </c>
       <c r="E17" s="7">
-        <v>80.3</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F17" s="20">
-        <v>80.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="G17" s="20">
-        <v>79.900000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="H17" s="15">
-        <v>79.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="I17" s="15">
-        <v>79.400000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="J17" s="15">
-        <v>79.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="K17" s="11">
-        <v>79</v>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>78.8</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C18" s="7">
-        <v>78.5</v>
+        <v>739</v>
       </c>
       <c r="D18" s="7">
-        <v>78.3</v>
+        <v>73.7</v>
       </c>
       <c r="E18" s="7">
-        <v>78.099999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="F18" s="20">
-        <v>77.900000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="G18" s="20">
-        <v>77.599999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="H18" s="15">
-        <v>77.400000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="I18" s="15">
-        <v>77.2</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="J18" s="15">
-        <v>77</v>
+        <v>72.2</v>
       </c>
       <c r="K18" s="11">
-        <v>76.7</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>76.599999999999994</v>
+        <v>71.8</v>
       </c>
       <c r="C19" s="7">
-        <v>76.3</v>
+        <v>71.5</v>
       </c>
       <c r="D19" s="7">
-        <v>76</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E19" s="7">
-        <v>75.900000000000006</v>
+        <v>71</v>
       </c>
       <c r="F19" s="20">
-        <v>75.599999999999994</v>
+        <v>70.7</v>
       </c>
       <c r="G19" s="20">
-        <v>75.3</v>
+        <v>70.5</v>
       </c>
       <c r="H19" s="15">
-        <v>75.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="I19" s="15">
-        <v>74.8</v>
+        <v>70</v>
       </c>
       <c r="J19" s="15">
-        <v>74.599999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="K19" s="11">
-        <v>74.400000000000006</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="11"/>
+      <c r="A20" s="22">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D20" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="E20" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F20" s="20">
+        <v>68.2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H20" s="15">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="I20" s="15">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J20" s="15">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K20" s="11">
+        <v>66.900000000000006</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>74.099999999999994</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C21" s="7">
-        <v>739</v>
+        <v>66.3</v>
       </c>
       <c r="D21" s="7">
-        <v>73.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E21" s="7">
-        <v>73.5</v>
+        <v>65.8</v>
       </c>
       <c r="F21" s="20">
-        <v>73.2</v>
+        <v>65.5</v>
       </c>
       <c r="G21" s="20">
-        <v>72.900000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="H21" s="15">
-        <v>72.7</v>
+        <v>65</v>
       </c>
       <c r="I21" s="15">
-        <v>72.400000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="J21" s="15">
-        <v>72.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K21" s="11">
-        <v>71.900000000000006</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>71.8</v>
+        <v>63.9</v>
       </c>
       <c r="C22" s="7">
-        <v>71.5</v>
+        <v>93.6</v>
       </c>
       <c r="D22" s="7">
-        <v>72.099999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="E22" s="7">
-        <v>71</v>
+        <v>63.1</v>
       </c>
       <c r="F22" s="20">
-        <v>70.7</v>
+        <v>62.8</v>
       </c>
       <c r="G22" s="20">
-        <v>70.5</v>
+        <v>62.5</v>
       </c>
       <c r="H22" s="15">
-        <v>70.2</v>
+        <v>62.2</v>
       </c>
       <c r="I22" s="15">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J22" s="15">
-        <v>69.7</v>
+        <v>61.7</v>
       </c>
       <c r="K22" s="11">
-        <v>69.400000000000006</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>69.3</v>
+        <v>61.1</v>
       </c>
       <c r="C23" s="7">
-        <v>68.900000000000006</v>
+        <v>60.8</v>
       </c>
       <c r="D23" s="7">
-        <v>68.7</v>
+        <v>60.6</v>
       </c>
       <c r="E23" s="7">
-        <v>68.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="F23" s="20">
-        <v>68.2</v>
+        <v>60</v>
       </c>
       <c r="G23" s="20">
-        <v>67.900000000000006</v>
+        <v>59.7</v>
       </c>
       <c r="H23" s="15">
-        <v>67.599999999999994</v>
+        <v>59.4</v>
       </c>
       <c r="I23" s="15">
-        <v>67.400000000000006</v>
+        <v>59.1</v>
       </c>
       <c r="J23" s="15">
-        <v>67.099999999999994</v>
+        <v>58.8</v>
       </c>
       <c r="K23" s="11">
-        <v>66.900000000000006</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>66.599999999999994</v>
+        <v>58.2</v>
       </c>
       <c r="C24" s="7">
-        <v>66.3</v>
+        <v>57.9</v>
       </c>
       <c r="D24" s="7">
-        <v>66.099999999999994</v>
+        <v>57.6</v>
       </c>
       <c r="E24" s="7">
-        <v>65.8</v>
+        <v>57.4</v>
       </c>
       <c r="F24" s="20">
-        <v>65.5</v>
+        <v>57.1</v>
       </c>
       <c r="G24" s="20">
-        <v>65.3</v>
+        <v>56.8</v>
       </c>
       <c r="H24" s="15">
-        <v>65</v>
+        <v>56.5</v>
       </c>
       <c r="I24" s="15">
-        <v>64.7</v>
+        <v>56.2</v>
       </c>
       <c r="J24" s="15">
-        <v>64.400000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="K24" s="11">
-        <v>64.2</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>63.9</v>
+        <v>55.3</v>
       </c>
       <c r="C25" s="7">
-        <v>93.6</v>
+        <v>54.9</v>
       </c>
       <c r="D25" s="7">
-        <v>63.4</v>
+        <v>54.6</v>
       </c>
       <c r="E25" s="7">
-        <v>63.1</v>
+        <v>54.3</v>
       </c>
       <c r="F25" s="20">
-        <v>62.8</v>
+        <v>54</v>
       </c>
       <c r="G25" s="20">
-        <v>62.5</v>
+        <v>53.7</v>
       </c>
       <c r="H25" s="15">
-        <v>62.2</v>
+        <v>53.4</v>
       </c>
       <c r="I25" s="15">
-        <v>62</v>
+        <v>53.1</v>
       </c>
       <c r="J25" s="15">
-        <v>61.7</v>
+        <v>52.8</v>
       </c>
       <c r="K25" s="11">
-        <v>61.4</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="11"/>
+      <c r="A26" s="22">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>52.2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>50.9</v>
+      </c>
+      <c r="G26" s="20">
+        <v>50.6</v>
+      </c>
+      <c r="H26" s="15">
+        <v>50.2</v>
+      </c>
+      <c r="I26" s="15">
+        <v>49.9</v>
+      </c>
+      <c r="J26" s="15">
+        <v>49.6</v>
+      </c>
+      <c r="K26" s="11">
+        <v>49.3</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>61.1</v>
+        <v>48.9</v>
       </c>
       <c r="C27" s="7">
-        <v>60.8</v>
+        <v>48.6</v>
       </c>
       <c r="D27" s="7">
-        <v>60.6</v>
+        <v>48.4</v>
       </c>
       <c r="E27" s="7">
-        <v>60.3</v>
+        <v>48</v>
       </c>
       <c r="F27" s="20">
-        <v>60</v>
+        <v>47.6</v>
       </c>
       <c r="G27" s="20">
-        <v>59.7</v>
+        <v>47.3</v>
       </c>
       <c r="H27" s="15">
-        <v>59.4</v>
+        <v>47</v>
       </c>
       <c r="I27" s="15">
-        <v>59.1</v>
+        <v>46.6</v>
       </c>
       <c r="J27" s="15">
-        <v>58.8</v>
+        <v>46.4</v>
       </c>
       <c r="K27" s="11">
-        <v>58.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>58.2</v>
+        <v>45.7</v>
       </c>
       <c r="C28" s="7">
-        <v>57.9</v>
+        <v>45.3</v>
       </c>
       <c r="D28" s="7">
-        <v>57.6</v>
+        <v>44.9</v>
       </c>
       <c r="E28" s="7">
-        <v>57.4</v>
+        <v>44.7</v>
       </c>
       <c r="F28" s="20">
-        <v>57.1</v>
+        <v>44.3</v>
       </c>
       <c r="G28" s="20">
-        <v>56.8</v>
+        <v>43.9</v>
       </c>
       <c r="H28" s="15">
-        <v>56.5</v>
+        <v>43.6</v>
       </c>
       <c r="I28" s="15">
-        <v>56.2</v>
+        <v>43.2</v>
       </c>
       <c r="J28" s="15">
-        <v>55.9</v>
+        <v>42.9</v>
       </c>
       <c r="K28" s="11">
-        <v>55.6</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>55.3</v>
+        <v>42.2</v>
       </c>
       <c r="C29" s="7">
-        <v>54.9</v>
+        <v>41.8</v>
       </c>
       <c r="D29" s="7">
-        <v>54.6</v>
+        <v>41.5</v>
       </c>
       <c r="E29" s="7">
-        <v>54.3</v>
+        <v>41.1</v>
       </c>
       <c r="F29" s="20">
-        <v>54</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G29" s="20">
-        <v>53.7</v>
+        <v>40.4</v>
       </c>
       <c r="H29" s="15">
-        <v>53.4</v>
+        <v>40</v>
       </c>
       <c r="I29" s="15">
-        <v>53.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J29" s="15">
-        <v>52.8</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="K29" s="11">
-        <v>52.5</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>52.2</v>
+        <v>38.6</v>
       </c>
       <c r="C30" s="7">
-        <v>51.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D30" s="7">
-        <v>51.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E30" s="7">
-        <v>51.2</v>
+        <v>37.5</v>
       </c>
       <c r="F30" s="20">
-        <v>50.9</v>
+        <v>37.1</v>
       </c>
       <c r="G30" s="20">
-        <v>50.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H30" s="15">
-        <v>50.2</v>
+        <v>36.4</v>
       </c>
       <c r="I30" s="15">
-        <v>49.9</v>
+        <v>36</v>
       </c>
       <c r="J30" s="15">
-        <v>49.6</v>
+        <v>35.6</v>
       </c>
       <c r="K30" s="11">
-        <v>49.3</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>48.9</v>
+        <v>34.9</v>
       </c>
       <c r="C31" s="7">
-        <v>48.6</v>
+        <v>34.5</v>
       </c>
       <c r="D31" s="7">
-        <v>48.4</v>
+        <v>34.1</v>
       </c>
       <c r="E31" s="7">
-        <v>48</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F31" s="20">
-        <v>47.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G31" s="20">
-        <v>47.3</v>
+        <v>33</v>
       </c>
       <c r="H31" s="15">
-        <v>47</v>
+        <v>32.6</v>
       </c>
       <c r="I31" s="15">
-        <v>46.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="J31" s="15">
-        <v>46.4</v>
+        <v>31.8</v>
       </c>
       <c r="K31" s="11">
-        <v>46</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="11"/>
+      <c r="A32" s="22">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>30.2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="F32" s="20">
+        <v>29.4</v>
+      </c>
+      <c r="G32" s="20">
+        <v>29</v>
+      </c>
+      <c r="H32" s="15">
+        <v>28.6</v>
+      </c>
+      <c r="I32" s="15">
+        <v>28.2</v>
+      </c>
+      <c r="J32" s="15">
+        <v>27.8</v>
+      </c>
+      <c r="K32" s="11">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>45.7</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
-        <v>45.3</v>
+        <v>26.6</v>
       </c>
       <c r="D33" s="7">
-        <v>44.9</v>
+        <v>26.2</v>
       </c>
       <c r="E33" s="7">
-        <v>44.7</v>
+        <v>25.8</v>
       </c>
       <c r="F33" s="20">
-        <v>44.3</v>
+        <v>25.4</v>
       </c>
       <c r="G33" s="20">
-        <v>43.9</v>
+        <v>24.9</v>
       </c>
       <c r="H33" s="15">
-        <v>43.6</v>
+        <v>24.5</v>
       </c>
       <c r="I33" s="15">
-        <v>43.2</v>
+        <v>24.1</v>
       </c>
       <c r="J33" s="15">
-        <v>42.9</v>
+        <v>23.7</v>
       </c>
       <c r="K33" s="11">
-        <v>42.5</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>42.2</v>
+        <v>22.8</v>
       </c>
       <c r="C34" s="7">
-        <v>41.8</v>
+        <v>22.4</v>
       </c>
       <c r="D34" s="7">
-        <v>41.5</v>
+        <v>22</v>
       </c>
       <c r="E34" s="7">
-        <v>41.1</v>
+        <v>21.6</v>
       </c>
       <c r="F34" s="20">
-        <v>40.799999999999997</v>
+        <v>21.1</v>
       </c>
       <c r="G34" s="20">
-        <v>40.4</v>
+        <v>20.7</v>
       </c>
       <c r="H34" s="15">
-        <v>40</v>
+        <v>20.3</v>
       </c>
       <c r="I34" s="15">
-        <v>39.700000000000003</v>
+        <v>19.8</v>
       </c>
       <c r="J34" s="15">
-        <v>39.299999999999997</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K34" s="11">
-        <v>38.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>38.6</v>
+        <v>18.5</v>
       </c>
       <c r="C35" s="7">
-        <v>38.200000000000003</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D35" s="7">
-        <v>37.799999999999997</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E35" s="7">
-        <v>37.5</v>
+        <v>17.2</v>
       </c>
       <c r="F35" s="20">
-        <v>37.1</v>
+        <v>16.7</v>
       </c>
       <c r="G35" s="20">
-        <v>36.700000000000003</v>
+        <v>16.3</v>
       </c>
       <c r="H35" s="15">
-        <v>36.4</v>
+        <v>15.8</v>
       </c>
       <c r="I35" s="15">
-        <v>36</v>
+        <v>15.4</v>
       </c>
       <c r="J35" s="15">
-        <v>35.6</v>
+        <v>14.9</v>
       </c>
       <c r="K35" s="11">
-        <v>35.200000000000003</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>34.9</v>
+        <v>14</v>
       </c>
       <c r="C36" s="7">
-        <v>34.5</v>
+        <v>13.6</v>
       </c>
       <c r="D36" s="7">
-        <v>34.1</v>
+        <v>13.1</v>
       </c>
       <c r="E36" s="7">
-        <v>33.700000000000003</v>
+        <v>12.6</v>
       </c>
       <c r="F36" s="20">
-        <v>33.299999999999997</v>
+        <v>12.2</v>
       </c>
       <c r="G36" s="20">
-        <v>33</v>
+        <v>11.8</v>
       </c>
       <c r="H36" s="15">
-        <v>32.6</v>
+        <v>11.3</v>
       </c>
       <c r="I36" s="15">
-        <v>32.200000000000003</v>
+        <v>10.8</v>
       </c>
       <c r="J36" s="15">
-        <v>31.8</v>
+        <v>10.3</v>
       </c>
       <c r="K36" s="11">
-        <v>31.4</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>31</v>
+        <v>9.4</v>
       </c>
       <c r="C37" s="7">
-        <v>30.6</v>
+        <v>8.9</v>
       </c>
       <c r="D37" s="7">
-        <v>30.2</v>
+        <v>8.4</v>
       </c>
       <c r="E37" s="7">
-        <v>29.8</v>
+        <v>7.9</v>
       </c>
       <c r="F37" s="20">
-        <v>29.4</v>
+        <v>7.5</v>
       </c>
       <c r="G37" s="20">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H37" s="15">
-        <v>28.6</v>
+        <v>6.5</v>
       </c>
       <c r="I37" s="15">
-        <v>28.2</v>
+        <v>6</v>
       </c>
       <c r="J37" s="15">
-        <v>27.8</v>
+        <v>5.6</v>
       </c>
       <c r="K37" s="11">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45</v>
+      </c>
+      <c r="C38" s="8">
+        <v>40</v>
+      </c>
+      <c r="D38" s="8">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8">
         <v>30</v>
       </c>
-      <c r="B39" s="3">
-        <v>27</v>
-      </c>
-      <c r="C39" s="7">
-        <v>26.6</v>
-      </c>
-      <c r="D39" s="7">
-        <v>26.2</v>
-      </c>
-      <c r="E39" s="7">
-        <v>25.8</v>
-      </c>
-      <c r="F39" s="20">
-        <v>25.4</v>
-      </c>
-      <c r="G39" s="20">
-        <v>24.9</v>
-      </c>
-      <c r="H39" s="15">
-        <v>24.5</v>
-      </c>
-      <c r="I39" s="15">
-        <v>24.1</v>
-      </c>
-      <c r="J39" s="15">
-        <v>23.7</v>
-      </c>
-      <c r="K39" s="11">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3">
-        <v>22.8</v>
-      </c>
-      <c r="C40" s="7">
-        <v>22.4</v>
-      </c>
-      <c r="D40" s="7">
-        <v>22</v>
-      </c>
-      <c r="E40" s="7">
-        <v>21.6</v>
-      </c>
-      <c r="F40" s="20">
-        <v>21.1</v>
-      </c>
-      <c r="G40" s="20">
-        <v>20.7</v>
-      </c>
-      <c r="H40" s="15">
-        <v>20.3</v>
-      </c>
-      <c r="I40" s="15">
-        <v>19.8</v>
-      </c>
-      <c r="J40" s="15">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="K40" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>32</v>
-      </c>
-      <c r="B41" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="C41" s="7">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D41" s="7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E41" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="F41" s="20">
-        <v>16.7</v>
-      </c>
-      <c r="G41" s="20">
-        <v>16.3</v>
-      </c>
-      <c r="H41" s="15">
-        <v>15.8</v>
-      </c>
-      <c r="I41" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="J41" s="15">
-        <v>14.9</v>
-      </c>
-      <c r="K41" s="11">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3">
-        <v>14</v>
-      </c>
-      <c r="C42" s="7">
-        <v>13.6</v>
-      </c>
-      <c r="D42" s="7">
-        <v>13.1</v>
-      </c>
-      <c r="E42" s="7">
-        <v>12.6</v>
-      </c>
-      <c r="F42" s="20">
-        <v>12.2</v>
-      </c>
-      <c r="G42" s="20">
-        <v>11.8</v>
-      </c>
-      <c r="H42" s="15">
-        <v>11.3</v>
-      </c>
-      <c r="I42" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="J42" s="15">
-        <v>10.3</v>
-      </c>
-      <c r="K42" s="11">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="C43" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="D43" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="E43" s="7">
-        <v>7.9</v>
-      </c>
-      <c r="F43" s="20">
-        <v>7.5</v>
-      </c>
-      <c r="G43" s="20">
-        <v>7</v>
-      </c>
-      <c r="H43" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="I43" s="15">
-        <v>6</v>
-      </c>
-      <c r="J43" s="15">
-        <v>5.6</v>
-      </c>
-      <c r="K43" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
-        <v>35</v>
-      </c>
-      <c r="B44" s="4">
-        <v>45</v>
-      </c>
-      <c r="C44" s="8">
-        <v>40</v>
-      </c>
-      <c r="D44" s="8">
-        <v>35</v>
-      </c>
-      <c r="E44" s="8">
-        <v>30</v>
-      </c>
-      <c r="F44" s="21">
+      <c r="F38" s="21">
         <v>25</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G38" s="21">
         <v>20</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H38" s="17">
         <v>20</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I38" s="17">
         <v>10</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J38" s="16">
         <v>0.5</v>
       </c>
-      <c r="K44" s="12"/>
+      <c r="K38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
